--- a/src/predicciones/holt_winters/producto_107.xlsx
+++ b/src/predicciones/holt_winters/producto_107.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2764 +404,2621 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>2.0273421651746</v>
+        <v>1.490817737081357</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1.002994067855813</v>
+        <v>2.051482225660714</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>2.993936337372887</v>
+        <v>1.772359624777006</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44932</v>
       </c>
       <c r="B5">
-        <v>0.9436784538328078</v>
+        <v>1.659175635344956</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44933</v>
       </c>
       <c r="B6">
-        <v>0.937461806738746</v>
+        <v>1.437240442930057</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44934</v>
       </c>
       <c r="B7">
-        <v>2.971343768674379</v>
+        <v>1.810412310561839</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44937</v>
       </c>
       <c r="B8">
-        <v>3.040389689626255</v>
+        <v>1.888509690685829</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44939</v>
       </c>
       <c r="B9">
-        <v>2.017198509408677</v>
+        <v>1.489859090998658</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44941</v>
       </c>
       <c r="B10">
-        <v>0.9928504120898901</v>
+        <v>2.050523579578016</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44944</v>
       </c>
       <c r="B11">
-        <v>2.983792681606964</v>
+        <v>1.771400978694308</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44945</v>
       </c>
       <c r="B12">
-        <v>0.9335347980668844</v>
+        <v>1.658216989262258</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44948</v>
       </c>
       <c r="B13">
-        <v>0.9273181509728227</v>
+        <v>1.436281796847359</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44949</v>
       </c>
       <c r="B14">
-        <v>2.961200112908456</v>
+        <v>1.809453664479141</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44951</v>
       </c>
       <c r="B15">
-        <v>3.030246033860332</v>
+        <v>1.88755104460313</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44952</v>
       </c>
       <c r="B16">
-        <v>2.007054853642753</v>
+        <v>1.48890044491596</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44954</v>
       </c>
       <c r="B17">
-        <v>0.9827067563239668</v>
+        <v>2.049564933495318</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44955</v>
       </c>
       <c r="B18">
-        <v>2.97364902584104</v>
+        <v>1.770442332611609</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44958</v>
       </c>
       <c r="B19">
-        <v>0.9233911423009611</v>
+        <v>1.657258343179559</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44959</v>
       </c>
       <c r="B20">
-        <v>0.9171744952068995</v>
+        <v>1.435323150764661</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44960</v>
       </c>
       <c r="B21">
-        <v>2.951056457142533</v>
+        <v>1.808495018396443</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44961</v>
       </c>
       <c r="B22">
-        <v>3.020102378094409</v>
+        <v>1.886592398520432</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44962</v>
       </c>
       <c r="B23">
-        <v>1.99691119787683</v>
+        <v>1.487941798833262</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44965</v>
       </c>
       <c r="B24">
-        <v>0.9725631005580434</v>
+        <v>2.048606287412619</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44966</v>
       </c>
       <c r="B25">
-        <v>2.963505370075117</v>
+        <v>1.769483686528911</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44969</v>
       </c>
       <c r="B26">
-        <v>0.913247486535038</v>
+        <v>1.656299697096861</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44970</v>
       </c>
       <c r="B27">
-        <v>0.9070308394409762</v>
+        <v>1.434364504681962</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44971</v>
       </c>
       <c r="B28">
-        <v>2.940912801376609</v>
+        <v>1.807536372313745</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44973</v>
       </c>
       <c r="B29">
-        <v>3.009958722328485</v>
+        <v>1.885633752437733</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44974</v>
       </c>
       <c r="B30">
-        <v>1.986767542110907</v>
+        <v>1.486983152750563</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44976</v>
       </c>
       <c r="B31">
-        <v>0.9624194447921203</v>
+        <v>2.047647641329921</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44977</v>
       </c>
       <c r="B32">
-        <v>2.953361714309194</v>
+        <v>1.768525040446213</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44979</v>
       </c>
       <c r="B33">
-        <v>0.9031038307691146</v>
+        <v>1.655341051014163</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44980</v>
       </c>
       <c r="B34">
-        <v>0.8968871836750528</v>
+        <v>1.433405858599264</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44982</v>
       </c>
       <c r="B35">
-        <v>2.930769145610686</v>
+        <v>1.806577726231046</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44987</v>
       </c>
       <c r="B36">
-        <v>2.999815066562562</v>
+        <v>1.884675106355035</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44989</v>
       </c>
       <c r="B37">
-        <v>1.976623886344984</v>
+        <v>1.486024506667865</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44991</v>
       </c>
       <c r="B38">
-        <v>0.9522757890261969</v>
+        <v>2.046688995247222</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44994</v>
       </c>
       <c r="B39">
-        <v>2.943218058543271</v>
+        <v>1.767566394363514</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45000</v>
       </c>
       <c r="B40">
-        <v>0.8929601750031912</v>
+        <v>1.654382404931464</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45004</v>
       </c>
       <c r="B41">
-        <v>0.8867435279091295</v>
+        <v>1.432447212516565</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45008</v>
       </c>
       <c r="B42">
-        <v>2.920625489844763</v>
+        <v>1.805619080148348</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45012</v>
       </c>
       <c r="B43">
-        <v>2.989671410796639</v>
+        <v>1.883716460272337</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45016</v>
       </c>
       <c r="B44">
-        <v>1.96648023057906</v>
+        <v>1.485065860585167</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45017</v>
       </c>
       <c r="B45">
-        <v>0.9421321332602736</v>
+        <v>2.045730349164524</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45018</v>
       </c>
       <c r="B46">
-        <v>2.933074402777347</v>
+        <v>1.766607748280816</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45019</v>
       </c>
       <c r="B47">
-        <v>0.8828165192372681</v>
+        <v>1.653423758848766</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45020</v>
       </c>
       <c r="B48">
-        <v>0.8765998721432063</v>
+        <v>1.431488566433867</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45021</v>
       </c>
       <c r="B49">
-        <v>2.91048183407884</v>
+        <v>1.804660434065649</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45025</v>
       </c>
       <c r="B50">
-        <v>2.979527755030715</v>
+        <v>1.882757814189638</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45026</v>
       </c>
       <c r="B51">
-        <v>1.956336574813137</v>
+        <v>1.484107214502468</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45027</v>
       </c>
       <c r="B52">
-        <v>0.9319884774943504</v>
+        <v>2.044771703081826</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45028</v>
       </c>
       <c r="B53">
-        <v>2.922930747011424</v>
+        <v>1.765649102198118</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45029</v>
       </c>
       <c r="B54">
-        <v>0.8726728634713448</v>
+        <v>1.652465112766068</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45030</v>
       </c>
       <c r="B55">
-        <v>0.866456216377283</v>
+        <v>1.430529920351169</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45034</v>
       </c>
       <c r="B56">
-        <v>2.900338178312916</v>
+        <v>1.803701787982951</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45035</v>
       </c>
       <c r="B57">
-        <v>2.969384099264793</v>
+        <v>1.88179916810694</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45036</v>
       </c>
       <c r="B58">
-        <v>1.946192919047214</v>
+        <v>1.48314856841977</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45037</v>
       </c>
       <c r="B59">
-        <v>0.9218448217284271</v>
+        <v>2.043813056999127</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45040</v>
       </c>
       <c r="B60">
-        <v>2.912787091245501</v>
+        <v>1.764690456115419</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45041</v>
       </c>
       <c r="B61">
-        <v>0.8625292077054214</v>
+        <v>1.651506466683369</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45042</v>
       </c>
       <c r="B62">
-        <v>0.8563125606113596</v>
+        <v>1.429571274268471</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45043</v>
       </c>
       <c r="B63">
-        <v>2.890194522546993</v>
+        <v>1.802743141900252</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45044</v>
       </c>
       <c r="B64">
-        <v>2.959240443498869</v>
+        <v>1.880840522024242</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45045</v>
       </c>
       <c r="B65">
-        <v>1.93604926328129</v>
+        <v>1.482189922337072</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45048</v>
       </c>
       <c r="B66">
-        <v>0.9117011659625037</v>
+        <v>2.042854410916429</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45049</v>
       </c>
       <c r="B67">
-        <v>2.902643435479577</v>
+        <v>1.763731810032721</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45052</v>
       </c>
       <c r="B68">
-        <v>0.8523855519394983</v>
+        <v>1.650547820600671</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45054</v>
       </c>
       <c r="B69">
-        <v>0.8461689048454365</v>
+        <v>1.428612628185772</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45056</v>
       </c>
       <c r="B70">
-        <v>2.88005086678107</v>
+        <v>1.801784495817554</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45057</v>
       </c>
       <c r="B71">
-        <v>2.949096787732945</v>
+        <v>1.879881875941543</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45061</v>
       </c>
       <c r="B72">
-        <v>1.925905607515367</v>
+        <v>1.481231276254373</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45063</v>
       </c>
       <c r="B73">
-        <v>0.9015575101965804</v>
+        <v>2.041895764833731</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45068</v>
       </c>
       <c r="B74">
-        <v>2.892499779713654</v>
+        <v>1.762773163950023</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45069</v>
       </c>
       <c r="B75">
-        <v>0.8422418961735749</v>
+        <v>1.649589174517973</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45070</v>
       </c>
       <c r="B76">
-        <v>0.8360252490795131</v>
+        <v>1.427653982103074</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45072</v>
       </c>
       <c r="B77">
-        <v>2.869907211015146</v>
+        <v>1.800825849734856</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45073</v>
       </c>
       <c r="B78">
-        <v>2.938953131967022</v>
+        <v>1.878923229858845</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45076</v>
       </c>
       <c r="B79">
-        <v>1.915761951749444</v>
+        <v>1.480272630171675</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45079</v>
       </c>
       <c r="B80">
-        <v>0.8914138544306572</v>
+        <v>2.040937118751033</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45080</v>
       </c>
       <c r="B81">
-        <v>2.882356123947731</v>
+        <v>1.761814517867324</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45081</v>
       </c>
       <c r="B82">
-        <v>0.8320982404076516</v>
+        <v>1.648630528435274</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45083</v>
       </c>
       <c r="B83">
-        <v>0.8258815933135898</v>
+        <v>1.426695336020376</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45085</v>
       </c>
       <c r="B84">
-        <v>2.859763555249223</v>
+        <v>1.799867203652158</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45086</v>
       </c>
       <c r="B85">
-        <v>2.928809476201099</v>
+        <v>1.877964583776147</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45087</v>
       </c>
       <c r="B86">
-        <v>1.905618295983521</v>
+        <v>1.479313984088977</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45091</v>
       </c>
       <c r="B87">
-        <v>0.8812701986647339</v>
+        <v>2.039978472668334</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45092</v>
       </c>
       <c r="B88">
-        <v>2.872212468181807</v>
+        <v>1.760855871784626</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45093</v>
       </c>
       <c r="B89">
-        <v>0.8219545846417284</v>
+        <v>1.647671882352576</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45096</v>
       </c>
       <c r="B90">
-        <v>0.8157379375476667</v>
+        <v>1.425736689937677</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45097</v>
       </c>
       <c r="B91">
-        <v>2.8496198994833</v>
+        <v>1.798908557569459</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45100</v>
       </c>
       <c r="B92">
-        <v>2.918665820435176</v>
+        <v>1.877005937693448</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45101</v>
       </c>
       <c r="B93">
-        <v>1.895474640217597</v>
+        <v>1.478355338006278</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45104</v>
       </c>
       <c r="B94">
-        <v>0.8711265428988105</v>
+        <v>2.039019826585636</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45106</v>
       </c>
       <c r="B95">
-        <v>2.862068812415884</v>
+        <v>1.759897225701928</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45108</v>
       </c>
       <c r="B96">
-        <v>0.8118109288758051</v>
+        <v>1.646713236269878</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45109</v>
       </c>
       <c r="B97">
-        <v>0.8055942817817433</v>
+        <v>1.424778043854979</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45110</v>
       </c>
       <c r="B98">
-        <v>2.839476243717376</v>
+        <v>1.797949911486761</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45111</v>
       </c>
       <c r="B99">
-        <v>2.908522164669253</v>
+        <v>1.87604729161075</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45114</v>
       </c>
       <c r="B100">
-        <v>1.885330984451674</v>
+        <v>1.47739669192358</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45116</v>
       </c>
       <c r="B101">
-        <v>0.8609828871328874</v>
+        <v>2.038061180502937</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45117</v>
       </c>
       <c r="B102">
-        <v>2.851925156649961</v>
+        <v>1.758938579619229</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45118</v>
       </c>
       <c r="B103">
-        <v>0.8016672731098817</v>
+        <v>1.645754590187179</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45121</v>
       </c>
       <c r="B104">
-        <v>0.79545062601582</v>
+        <v>1.42381939777228</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45122</v>
       </c>
       <c r="B105">
-        <v>2.829332587951453</v>
+        <v>1.796991265404063</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45126</v>
       </c>
       <c r="B106">
-        <v>2.898378508903329</v>
+        <v>1.875088645528052</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45127</v>
       </c>
       <c r="B107">
-        <v>1.875187328685751</v>
+        <v>1.476438045840881</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45128</v>
       </c>
       <c r="B108">
-        <v>0.850839231366964</v>
+        <v>2.037102534420239</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45129</v>
       </c>
       <c r="B109">
-        <v>2.841781500884037</v>
+        <v>1.757979933536531</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45130</v>
       </c>
       <c r="B110">
-        <v>0.7915236173439586</v>
+        <v>1.644795944104481</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45131</v>
       </c>
       <c r="B111">
-        <v>0.7853069702498968</v>
+        <v>1.422860751689582</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45133</v>
       </c>
       <c r="B112">
-        <v>2.81918893218553</v>
+        <v>1.796032619321364</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45134</v>
       </c>
       <c r="B113">
-        <v>2.888234853137406</v>
+        <v>1.874129999445353</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45135</v>
       </c>
       <c r="B114">
-        <v>1.865043672919827</v>
+        <v>1.475479399758183</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45137</v>
       </c>
       <c r="B115">
-        <v>0.8406955756010407</v>
+        <v>2.03614388833754</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45138</v>
       </c>
       <c r="B116">
-        <v>2.831637845118114</v>
+        <v>1.757021287453833</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45139</v>
       </c>
       <c r="B117">
-        <v>0.7813799615780352</v>
+        <v>1.643837298021783</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45144</v>
       </c>
       <c r="B118">
-        <v>0.7751633144839735</v>
+        <v>1.421902105606884</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45148</v>
       </c>
       <c r="B119">
-        <v>2.809045276419607</v>
+        <v>1.795073973238666</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45149</v>
       </c>
       <c r="B120">
-        <v>2.878091197371483</v>
+        <v>1.873171353362655</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45151</v>
       </c>
       <c r="B121">
-        <v>1.854900017153904</v>
+        <v>1.474520753675485</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45155</v>
       </c>
       <c r="B122">
-        <v>0.8305519198351176</v>
+        <v>2.035185242254842</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45159</v>
       </c>
       <c r="B123">
-        <v>2.821494189352191</v>
+        <v>1.756062641371134</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45161</v>
       </c>
       <c r="B124">
-        <v>0.7712363058121119</v>
+        <v>1.642878651939084</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45162</v>
       </c>
       <c r="B125">
-        <v>0.7650196587180501</v>
+        <v>1.420943459524185</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45163</v>
       </c>
       <c r="B126">
-        <v>2.798901620653683</v>
+        <v>1.794115327155967</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45164</v>
       </c>
       <c r="B127">
-        <v>2.86794754160556</v>
+        <v>1.872212707279956</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45165</v>
       </c>
       <c r="B128">
-        <v>1.844756361387981</v>
+        <v>1.473562107592786</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45167</v>
       </c>
       <c r="B129">
-        <v>0.8204082640691942</v>
+        <v>2.034226596172144</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45169</v>
       </c>
       <c r="B130">
-        <v>2.811350533586268</v>
+        <v>1.755103995288436</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45172</v>
       </c>
       <c r="B131">
-        <v>0.7610926500461885</v>
+        <v>1.641920005856386</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45173</v>
       </c>
       <c r="B132">
-        <v>0.754876002952127</v>
+        <v>1.419984813441487</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45174</v>
       </c>
       <c r="B133">
-        <v>2.78875796488776</v>
+        <v>1.793156681073269</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45177</v>
       </c>
       <c r="B134">
-        <v>2.857803885839636</v>
+        <v>1.871254061197258</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45178</v>
       </c>
       <c r="B135">
-        <v>1.834612705622058</v>
+        <v>1.472603461510088</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45179</v>
       </c>
       <c r="B136">
-        <v>0.8102646083032709</v>
+        <v>2.033267950089446</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45182</v>
       </c>
       <c r="B137">
-        <v>2.801206877820344</v>
+        <v>1.754145349205738</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45183</v>
       </c>
       <c r="B138">
-        <v>0.7509489942802654</v>
+        <v>1.640961359773687</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45189</v>
       </c>
       <c r="B139">
-        <v>0.7447323471862036</v>
+        <v>1.419026167358789</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45190</v>
       </c>
       <c r="B140">
-        <v>2.778614309121837</v>
+        <v>1.792198034990571</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45193</v>
       </c>
       <c r="B141">
-        <v>2.847660230073713</v>
+        <v>1.87029541511456</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45195</v>
       </c>
       <c r="B142">
-        <v>1.824469049856134</v>
+        <v>1.47164481542739</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45196</v>
       </c>
       <c r="B143">
-        <v>0.8001209525373477</v>
+        <v>2.032309304006747</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45197</v>
       </c>
       <c r="B144">
-        <v>2.791063222054421</v>
+        <v>1.753186703123039</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45198</v>
       </c>
       <c r="B145">
-        <v>0.740805338514342</v>
+        <v>1.640002713690989</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45199</v>
       </c>
       <c r="B146">
-        <v>0.7345886914202803</v>
+        <v>1.41806752127609</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45200</v>
       </c>
       <c r="B147">
-        <v>2.768470653355913</v>
+        <v>1.791239388907873</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45201</v>
       </c>
       <c r="B148">
-        <v>2.83751657430779</v>
+        <v>1.869336769031861</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45204</v>
       </c>
       <c r="B149">
-        <v>1.814325394090211</v>
+        <v>1.470686169344691</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45205</v>
       </c>
       <c r="B150">
-        <v>0.7899772967714244</v>
+        <v>2.031350657924049</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45206</v>
       </c>
       <c r="B151">
-        <v>2.780919566288498</v>
+        <v>1.752228057040341</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45209</v>
       </c>
       <c r="B152">
-        <v>0.7306616827484187</v>
+        <v>1.639044067608291</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45210</v>
       </c>
       <c r="B153">
-        <v>0.7244450356543571</v>
+        <v>1.417108875193392</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45211</v>
       </c>
       <c r="B154">
-        <v>2.75832699758999</v>
+        <v>1.790280742825174</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45214</v>
       </c>
       <c r="B155">
-        <v>2.827372918541866</v>
+        <v>1.868378122949163</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45215</v>
       </c>
       <c r="B156">
-        <v>1.804181738324288</v>
+        <v>1.469727523261993</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45216</v>
       </c>
       <c r="B157">
-        <v>0.779833641005501</v>
+        <v>2.030392011841351</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45217</v>
       </c>
       <c r="B158">
-        <v>2.770775910522574</v>
+        <v>1.751269410957643</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45219</v>
       </c>
       <c r="B159">
-        <v>0.7205180269824956</v>
+        <v>1.638085421525592</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45220</v>
       </c>
       <c r="B160">
-        <v>0.7143013798884338</v>
+        <v>1.416150229110694</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45221</v>
       </c>
       <c r="B161">
-        <v>2.748183341824067</v>
+        <v>1.789322096742476</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45222</v>
       </c>
       <c r="B162">
-        <v>2.817229262775943</v>
+        <v>1.867419476866465</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45224</v>
       </c>
       <c r="B163">
-        <v>1.794038082558364</v>
+        <v>1.468768877179295</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45225</v>
       </c>
       <c r="B164">
-        <v>0.7696899852395779</v>
+        <v>2.029433365758652</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45229</v>
       </c>
       <c r="B165">
-        <v>2.760632254756652</v>
+        <v>1.750310764874944</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45232</v>
       </c>
       <c r="B166">
-        <v>0.7103743712165722</v>
+        <v>1.637126775442894</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45234</v>
       </c>
       <c r="B167">
-        <v>0.7041577241225104</v>
+        <v>1.415191583027995</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45236</v>
       </c>
       <c r="B168">
-        <v>2.738039686058143</v>
+        <v>1.788363450659777</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45237</v>
       </c>
       <c r="B169">
-        <v>2.80708560701002</v>
+        <v>1.866460830783766</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45238</v>
       </c>
       <c r="B170">
-        <v>1.783894426792441</v>
+        <v>1.467810231096596</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45240</v>
       </c>
       <c r="B171">
-        <v>0.7595463294736545</v>
+        <v>2.028474719675954</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45243</v>
       </c>
       <c r="B172">
-        <v>2.750488598990728</v>
+        <v>1.749352118792246</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45244</v>
       </c>
       <c r="B173">
-        <v>0.7002307154506489</v>
+        <v>1.636168129360196</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45245</v>
       </c>
       <c r="B174">
-        <v>0.6940140683565873</v>
+        <v>1.414232936945297</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45246</v>
       </c>
       <c r="B175">
-        <v>2.727896030292221</v>
+        <v>1.787404804577079</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45247</v>
       </c>
       <c r="B176">
-        <v>2.796941951244096</v>
+        <v>1.865502184701068</v>
       </c>
       <c r="C176">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45248</v>
       </c>
       <c r="B177">
-        <v>1.773750771026518</v>
+        <v>1.466851585013898</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45249</v>
       </c>
       <c r="B178">
-        <v>0.7494026737077312</v>
+        <v>2.027516073593255</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45250</v>
       </c>
       <c r="B179">
-        <v>2.740344943224804</v>
+        <v>1.748393472709547</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45254</v>
       </c>
       <c r="B180">
-        <v>0.6900870596847255</v>
+        <v>1.635209483277497</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45255</v>
       </c>
       <c r="B181">
-        <v>0.6838704125906639</v>
+        <v>1.413274290862599</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45256</v>
       </c>
       <c r="B182">
-        <v>2.717752374526297</v>
+        <v>1.78644615849438</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45257</v>
       </c>
       <c r="B183">
-        <v>2.786798295478173</v>
+        <v>1.86454353861837</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45258</v>
       </c>
       <c r="B184">
-        <v>1.763607115260595</v>
+        <v>1.4658929389312</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45260</v>
       </c>
       <c r="B185">
-        <v>0.739259017941808</v>
+        <v>2.026557427510557</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45261</v>
       </c>
       <c r="B186">
-        <v>2.730201287458882</v>
+        <v>1.747434826626849</v>
       </c>
       <c r="C186">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45262</v>
       </c>
       <c r="B187">
-        <v>0.6799434039188024</v>
+        <v>1.634250837194799</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45263</v>
       </c>
       <c r="B188">
-        <v>0.6737267568247406</v>
+        <v>1.4123156447799</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45266</v>
       </c>
       <c r="B189">
-        <v>2.707608718760373</v>
+        <v>1.785487512411682</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45267</v>
       </c>
       <c r="B190">
-        <v>2.77665463971225</v>
+        <v>1.863584892535671</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45269</v>
       </c>
       <c r="B191">
-        <v>1.753463459494671</v>
+        <v>1.464934292848501</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45270</v>
       </c>
       <c r="B192">
-        <v>0.7291153621758847</v>
+        <v>2.025598781427859</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45271</v>
       </c>
       <c r="B193">
-        <v>2.720057631692958</v>
+        <v>1.746476180544151</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45272</v>
       </c>
       <c r="B194">
-        <v>0.669799748152879</v>
+        <v>1.633292191112101</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45274</v>
       </c>
       <c r="B195">
-        <v>0.6635831010588175</v>
+        <v>1.411356998697202</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45276</v>
       </c>
       <c r="B196">
-        <v>2.697465062994451</v>
+        <v>1.784528866328984</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45277</v>
       </c>
       <c r="B197">
-        <v>2.766510983946326</v>
+        <v>1.862626246452973</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45280</v>
       </c>
       <c r="B198">
-        <v>1.743319803728748</v>
+        <v>1.463975646765803</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45281</v>
       </c>
       <c r="B199">
-        <v>0.7189717064099613</v>
+        <v>2.02464013534516</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45284</v>
       </c>
       <c r="B200">
-        <v>2.709913975927035</v>
+        <v>1.745517534461452</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45287</v>
       </c>
       <c r="B201">
-        <v>0.6596560923869557</v>
+        <v>1.632333545029402</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45288</v>
       </c>
       <c r="B202">
-        <v>0.6534394452928941</v>
+        <v>1.410398352614504</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45291</v>
       </c>
       <c r="B203">
-        <v>2.687321407228527</v>
+        <v>1.783570220246286</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45293</v>
       </c>
       <c r="B204">
-        <v>2.756367328180403</v>
+        <v>1.861667600370275</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45294</v>
       </c>
       <c r="B205">
-        <v>1.733176147962825</v>
+        <v>1.463017000683105</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45295</v>
       </c>
       <c r="B206">
-        <v>0.7088280506440382</v>
+        <v>2.023681489262462</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45296</v>
       </c>
       <c r="B207">
-        <v>2.699770320161112</v>
+        <v>1.744558888378754</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45297</v>
       </c>
       <c r="B208">
-        <v>0.6495124366210325</v>
+        <v>1.631374898946704</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45298</v>
       </c>
       <c r="B209">
-        <v>0.6432957895269708</v>
+        <v>1.409439706531805</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45299</v>
       </c>
       <c r="B210">
-        <v>2.677177751462604</v>
+        <v>1.782611574163587</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45300</v>
       </c>
       <c r="B211">
-        <v>2.74622367241448</v>
+        <v>1.860708954287576</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45305</v>
       </c>
       <c r="B212">
-        <v>1.723032492196901</v>
+        <v>1.462058354600406</v>
       </c>
       <c r="C212">
         <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45309</v>
       </c>
       <c r="B213">
-        <v>0.6986843948781148</v>
+        <v>2.022722843179764</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45310</v>
       </c>
       <c r="B214">
-        <v>2.689626664395188</v>
+        <v>1.743600242296056</v>
       </c>
       <c r="C214">
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45311</v>
       </c>
       <c r="B215">
-        <v>0.6393687808551092</v>
+        <v>1.630416252864006</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45313</v>
       </c>
       <c r="B216">
-        <v>0.6331521337610474</v>
+        <v>1.408481060449107</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45315</v>
       </c>
       <c r="B217">
-        <v>2.667034095696681</v>
+        <v>1.781652928080889</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45316</v>
       </c>
       <c r="B218">
-        <v>2.736080016648557</v>
+        <v>1.859750308204878</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45317</v>
       </c>
       <c r="B219">
-        <v>1.712888836430978</v>
+        <v>1.461099708517708</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45318</v>
       </c>
       <c r="B220">
-        <v>0.6885407391121915</v>
+        <v>2.021764197097065</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45322</v>
       </c>
       <c r="B221">
-        <v>2.679483008629265</v>
+        <v>1.742641596213357</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45323</v>
       </c>
       <c r="B222">
-        <v>0.6292251250891858</v>
+        <v>1.629457606781307</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>45324</v>
       </c>
       <c r="B223">
-        <v>0.623008477995124</v>
+        <v>1.407522414366408</v>
       </c>
       <c r="C223">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>45325</v>
       </c>
       <c r="B224">
-        <v>2.656890439930757</v>
+        <v>1.780694281998191</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>45327</v>
       </c>
       <c r="B225">
-        <v>2.725936360882633</v>
+        <v>1.85879166212218</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>45328</v>
       </c>
       <c r="B226">
-        <v>1.702745180665055</v>
+        <v>1.46014106243501</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>45329</v>
       </c>
       <c r="B227">
-        <v>0.6783970833462684</v>
+        <v>2.020805551014367</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>45330</v>
       </c>
       <c r="B228">
-        <v>2.669339352863342</v>
+        <v>1.741682950130659</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>45331</v>
       </c>
       <c r="B229">
-        <v>0.6190814693232627</v>
+        <v>1.628498960698609</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>45336</v>
       </c>
       <c r="B230">
-        <v>0.6128648222292009</v>
+        <v>1.40656376828371</v>
       </c>
       <c r="C230">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>45338</v>
       </c>
       <c r="B231">
-        <v>2.646746784164834</v>
+        <v>1.779735635915492</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>45339</v>
       </c>
       <c r="B232">
-        <v>2.71579270511671</v>
+        <v>1.857833016039481</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>45340</v>
       </c>
       <c r="B233">
-        <v>1.692601524899132</v>
+        <v>1.459182416352311</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>45342</v>
       </c>
       <c r="B234">
-        <v>0.668253427580345</v>
+        <v>2.019846904931669</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>45343</v>
       </c>
       <c r="B235">
-        <v>2.659195697097418</v>
+        <v>1.740724304047961</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2">
+        <v>45345</v>
       </c>
       <c r="B236">
-        <v>0.6089378135573393</v>
+        <v>1.627540314615911</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
+      <c r="A237" s="2">
+        <v>45347</v>
       </c>
       <c r="B237">
-        <v>0.6027211664632776</v>
+        <v>1.405605122201012</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
+      <c r="A238" s="2">
+        <v>45350</v>
       </c>
       <c r="B238">
-        <v>2.636603128398911</v>
+        <v>1.778776989832794</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
+      <c r="A239" s="2">
+        <v>45351</v>
       </c>
       <c r="B239">
-        <v>2.705649049350787</v>
+        <v>1.856874369956783</v>
       </c>
       <c r="C239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>1.682457869133208</v>
-      </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>0.6581097718144217</v>
-      </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>2.649052041331495</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>0.598794157791416</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>0.5925775106973542</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>2.626459472632988</v>
-      </c>
-      <c r="C245">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>2.695505393584864</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>1.672314213367285</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>0.6479661160484983</v>
-      </c>
-      <c r="C248">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>2.638908385565572</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>0.5886505020254928</v>
-      </c>
-      <c r="C250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>0.5824338549314311</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>2.616315816867064</v>
-      </c>
-      <c r="C252">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
